--- a/biology/Botanique/Allain_Provost/Allain_Provost.xlsx
+++ b/biology/Botanique/Allain_Provost/Allain_Provost.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Allain Provost, né le 29 novembre 1938 à Nantes, est un architecte paysagiste français.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après des études d'ingénieur agronome, puis d'architecte paysagiste à l'École nationale supérieure du paysage Allain Provost commence sa carrière au début des années 1960[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après des études d'ingénieur agronome, puis d'architecte paysagiste à l'École nationale supérieure du paysage Allain Provost commence sa carrière au début des années 1960.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Projets</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1973 : parc de la Courneuve (Île-de-France)
 1992 : parc Diderot (Paris La Défense, Courbevoie)
@@ -577,7 +593,9 @@
           <t>Autres activités</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1976-1986 : enseignant à l'École nationale supérieure du paysage de Versailles
 1988-2004 : directeur de l'École supérieure d'architecture des jardins et des paysages (ESAJ)</t>
@@ -608,10 +626,12 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1994 : Grand prix du paysage[2]
-2008 : membre honoraire du Royal Institute of British Architects (RIBA)[3]</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1994 : Grand prix du paysage
+2008 : membre honoraire du Royal Institute of British Architects (RIBA)</t>
         </is>
       </c>
     </row>
@@ -639,11 +659,13 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>avec Michel Racine et Michel Baridon, Paysages inventés, Oostkamp, Stichting kunstboek, 2004
-Karel Puype et An Theunynck, La Courneuve, Le Parc 1925-2005, Oostkamp, Stichting Kunstboek, 2005[4]
-Tracés, Paris, ICI consultants, 2011[5]</t>
+Karel Puype et An Theunynck, La Courneuve, Le Parc 1925-2005, Oostkamp, Stichting Kunstboek, 2005
+Tracés, Paris, ICI consultants, 2011</t>
         </is>
       </c>
     </row>
